--- a/data/trans_dic/P38A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Habitat-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.8954910012228864</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9190406411079535</v>
+        <v>0.9190406411079532</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8823915845073504</v>
@@ -664,7 +664,7 @@
         <v>0.874376904366408</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9054439627072796</v>
+        <v>0.9054439627072798</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8485045797411888</v>
+        <v>0.8508477688161692</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8244634002674608</v>
+        <v>0.8209803504164995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8541223688882861</v>
+        <v>0.8540373113722762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8630104470483881</v>
+        <v>0.8608437186898658</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.869398703090969</v>
+        <v>0.8702969095170524</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8958407598892414</v>
+        <v>0.8966540754616099</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8617283301569516</v>
+        <v>0.8651530768934061</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8548619421893382</v>
+        <v>0.8553883520748837</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8841450281086405</v>
+        <v>0.883054408981311</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9003248936817155</v>
+        <v>0.899496364149425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8785491821146949</v>
+        <v>0.8788858716893154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9199851795998095</v>
+        <v>0.9181651331008257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9121914969676869</v>
+        <v>0.9095945266052786</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9159702694881109</v>
+        <v>0.9190605642408834</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9375340961358486</v>
+        <v>0.937978203281213</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8975437466422881</v>
+        <v>0.9003022429314096</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8920194238142143</v>
+        <v>0.8921989053582335</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9227079149636129</v>
+        <v>0.9237201470280209</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.8265892588535194</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8177454998891303</v>
+        <v>0.8177454998891301</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.8832677459475695</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8056511225069627</v>
+        <v>0.8049129122926155</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8022365932305339</v>
+        <v>0.8019252542292442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7879081347674541</v>
+        <v>0.7878433638461442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8608328186754369</v>
+        <v>0.8633377039284387</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9037370358793092</v>
+        <v>0.90450045880241</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8566559844471856</v>
+        <v>0.8582529782192435</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8401706244213979</v>
+        <v>0.8413650624466492</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8578315732610342</v>
+        <v>0.8582555116281702</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8295763247741268</v>
+        <v>0.8310528776021274</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8551918895158979</v>
+        <v>0.855963036712348</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8530356693760349</v>
+        <v>0.8499996598411645</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8460174593546254</v>
+        <v>0.8455628596290344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9017169372123233</v>
+        <v>0.9015577908340572</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9361646222186252</v>
+        <v>0.9368445207746252</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.896840828025647</v>
+        <v>0.8973107020938542</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8723977854646739</v>
+        <v>0.8720802316310516</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8898561320514553</v>
+        <v>0.8884923706086103</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8642967438628951</v>
+        <v>0.8659868029347926</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8351977271016975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8289483607402929</v>
+        <v>0.828948360740293</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9033328940497524</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.825025741552863</v>
+        <v>0.8243409182416989</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8056828673242551</v>
+        <v>0.8057990801621022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7895672231397617</v>
+        <v>0.7887883484240656</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8785884078386669</v>
+        <v>0.8792876498069712</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8905337155886318</v>
+        <v>0.8893991168888039</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8778583563048566</v>
+        <v>0.8758618683886464</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.860892087943261</v>
+        <v>0.8613148728405715</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8568251990498894</v>
+        <v>0.8578164370686397</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8436157506759938</v>
+        <v>0.8431812413604883</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8779417299823694</v>
+        <v>0.8783646003414609</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8619521891057537</v>
+        <v>0.8597911571008758</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8628711487723162</v>
+        <v>0.8617818553633588</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.925106582151214</v>
+        <v>0.9240450597751135</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9308873265791531</v>
+        <v>0.9300042738123121</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9233085947658384</v>
+        <v>0.9216701556213031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8961652492813672</v>
+        <v>0.8945854427818111</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8903410857772274</v>
+        <v>0.8923685288440729</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.887643716777078</v>
+        <v>0.8853232713448373</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8356183627541395</v>
+        <v>0.8351535209227984</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8061678293399792</v>
+        <v>0.8075507866067623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7564403575691507</v>
+        <v>0.7577581060497298</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8907739331260831</v>
+        <v>0.8933691251803044</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8444776507047475</v>
+        <v>0.8430342300939556</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8329019490920656</v>
+        <v>0.8307450591061677</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8714760566546769</v>
+        <v>0.8711764708522066</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.834275189144615</v>
+        <v>0.8350618433919587</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8035764607143011</v>
+        <v>0.8039885099031541</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8804653993694604</v>
+        <v>0.8793014833224708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8548478326448649</v>
+        <v>0.8587219949448972</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8196927701050899</v>
+        <v>0.8224915794490066</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9271700903421203</v>
+        <v>0.9275994726520889</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8861428818140489</v>
+        <v>0.8863672617616383</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8773062582083516</v>
+        <v>0.8754960875326511</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.900119945872112</v>
+        <v>0.8990598752547123</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8671753289381282</v>
+        <v>0.8677126809997319</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.842561241800208</v>
+        <v>0.8413715437636192</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.8357689928054305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8267377948136319</v>
+        <v>0.826737794813632</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8966554755859145</v>
@@ -1091,7 +1091,7 @@
         <v>0.8983030903883276</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8847406225284857</v>
+        <v>0.884740622528486</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8752981958651023</v>
@@ -1100,7 +1100,7 @@
         <v>0.8677829664634463</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8565456798385042</v>
+        <v>0.8565456798385043</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8403033303365247</v>
+        <v>0.8395914965679281</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8219678813510469</v>
+        <v>0.8227457582123848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8109963246277484</v>
+        <v>0.8083818937269766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8849122660205652</v>
+        <v>0.8859804056613121</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8884063227516598</v>
+        <v>0.8885244695954957</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.87379117783442</v>
+        <v>0.8730596105744955</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8666087613399014</v>
+        <v>0.8675972630099775</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8587403858584003</v>
+        <v>0.8594443244587743</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8459694009336848</v>
+        <v>0.8458804309687364</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8639756069771553</v>
+        <v>0.8646588366456438</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8490731066347381</v>
+        <v>0.8487249333306648</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8442453016218071</v>
+        <v>0.8419095313178221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9066785364632092</v>
+        <v>0.9070197609050337</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9088317403685034</v>
+        <v>0.907768217339453</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8952533263088519</v>
+        <v>0.8949463036441371</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8834237181569313</v>
+        <v>0.8831356485151225</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8753563802856634</v>
+        <v>0.8758893944467259</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8652948324096622</v>
+        <v>0.86571575457025</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>594197</v>
+        <v>595838</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>553140</v>
+        <v>550803</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>589951</v>
+        <v>589892</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>599838</v>
+        <v>598332</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>583447</v>
+        <v>584050</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>656402</v>
+        <v>656998</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1202404</v>
+        <v>1207183</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1147226</v>
+        <v>1147933</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1258519</v>
+        <v>1256967</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>630486</v>
+        <v>629906</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>589427</v>
+        <v>589652</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>635443</v>
+        <v>634186</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>634021</v>
+        <v>632216</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>614701</v>
+        <v>616775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>686952</v>
+        <v>687277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1252379</v>
+        <v>1256228</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1197092</v>
+        <v>1197333</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1313411</v>
+        <v>1314852</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>814293</v>
+        <v>813546</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>815291</v>
+        <v>814974</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>826450</v>
+        <v>826382</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>886846</v>
+        <v>889427</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>939819</v>
+        <v>940613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>917340</v>
+        <v>919050</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1714742</v>
+        <v>1717180</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1763871</v>
+        <v>1764742</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1758499</v>
+        <v>1761628</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>864365</v>
+        <v>865144</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>866916</v>
+        <v>863831</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>887402</v>
+        <v>886925</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>928966</v>
+        <v>928802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>973541</v>
+        <v>974248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>960371</v>
+        <v>960874</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1780516</v>
+        <v>1779868</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1829720</v>
+        <v>1826915</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1832097</v>
+        <v>1835680</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>620269</v>
+        <v>619754</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>604216</v>
+        <v>604303</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>634080</v>
+        <v>633455</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>678651</v>
+        <v>679191</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>698251</v>
+        <v>697362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>713048</v>
+        <v>711427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1312216</v>
+        <v>1312861</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1314391</v>
+        <v>1315912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1362720</v>
+        <v>1362018</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>660052</v>
+        <v>660370</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>646415</v>
+        <v>644794</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>692949</v>
+        <v>692074</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>714583</v>
+        <v>713763</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>729892</v>
+        <v>729200</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>749966</v>
+        <v>748635</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1365982</v>
+        <v>1363574</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1365805</v>
+        <v>1368916</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1433839</v>
+        <v>1430091</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>785938</v>
+        <v>785500</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>751822</v>
+        <v>753111</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>748923</v>
+        <v>750228</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>932667</v>
+        <v>935384</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>877873</v>
+        <v>876372</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>932051</v>
+        <v>929638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1732125</v>
+        <v>1731529</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1645302</v>
+        <v>1646853</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1694826</v>
+        <v>1695695</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>828118</v>
+        <v>827023</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>797220</v>
+        <v>800833</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>811547</v>
+        <v>814318</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>970775</v>
+        <v>971224</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>921185</v>
+        <v>921419</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>981742</v>
+        <v>979716</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1789057</v>
+        <v>1786950</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1710185</v>
+        <v>1711245</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1777049</v>
+        <v>1774540</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2859870</v>
+        <v>2857447</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2769794</v>
+        <v>2772415</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2865057</v>
+        <v>2855821</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3136779</v>
+        <v>3140566</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3140202</v>
+        <v>3140619</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3263488</v>
+        <v>3260755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6021296</v>
+        <v>6028164</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5929050</v>
+        <v>5933910</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6148186</v>
+        <v>6147539</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2940436</v>
+        <v>2942761</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2861131</v>
+        <v>2859958</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2982518</v>
+        <v>2974266</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3213935</v>
+        <v>3215145</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3212398</v>
+        <v>3208639</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3343646</v>
+        <v>3342499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6138128</v>
+        <v>6136126</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6043773</v>
+        <v>6047453</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6288636</v>
+        <v>6291695</v>
       </c>
     </row>
     <row r="24">
